--- a/natmiOut/OldD4/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H2">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I2">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J2">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N2">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O2">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P2">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q2">
-        <v>1.855683978276839</v>
+        <v>7.202805172924444</v>
       </c>
       <c r="R2">
-        <v>1.855683978276839</v>
+        <v>64.82524655632001</v>
       </c>
       <c r="S2">
-        <v>0.0002700012585387497</v>
+        <v>0.0008649356834010451</v>
       </c>
       <c r="T2">
-        <v>0.0002700012585387497</v>
+        <v>0.001016848374959122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H3">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I3">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J3">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N3">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P3">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q3">
-        <v>23.22769228130124</v>
+        <v>61.441694511424</v>
       </c>
       <c r="R3">
-        <v>23.22769228130124</v>
+        <v>552.975250602816</v>
       </c>
       <c r="S3">
-        <v>0.003379619710208289</v>
+        <v>0.007378113492688001</v>
       </c>
       <c r="T3">
-        <v>0.003379619710208289</v>
+        <v>0.008673966006123388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H4">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I4">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J4">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N4">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O4">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P4">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q4">
-        <v>26.55761226595204</v>
+        <v>73.83790121041601</v>
       </c>
       <c r="R4">
-        <v>26.55761226595204</v>
+        <v>664.541110893744</v>
       </c>
       <c r="S4">
-        <v>0.003864121703658664</v>
+        <v>0.008866689298275145</v>
       </c>
       <c r="T4">
-        <v>0.003864121703658664</v>
+        <v>0.01042398732905327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H5">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I5">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J5">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N5">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O5">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P5">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q5">
-        <v>26.38855623252772</v>
+        <v>74.53139404696888</v>
       </c>
       <c r="R5">
-        <v>26.38855623252772</v>
+        <v>670.78254642272</v>
       </c>
       <c r="S5">
-        <v>0.003839524120060125</v>
+        <v>0.00894996611697522</v>
       </c>
       <c r="T5">
-        <v>0.003839524120060125</v>
+        <v>0.01052189044415422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.41949793736586</v>
+        <v>3.400602666666666</v>
       </c>
       <c r="H6">
-        <v>1.41949793736586</v>
+        <v>10.201808</v>
       </c>
       <c r="I6">
-        <v>0.02065897527655922</v>
+        <v>0.04459276058749458</v>
       </c>
       <c r="J6">
-        <v>0.02065897527655922</v>
+        <v>0.04516209424246567</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N6">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O6">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P6">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q6">
-        <v>63.95693943763101</v>
+        <v>154.335165216336</v>
       </c>
       <c r="R6">
-        <v>63.95693943763101</v>
+        <v>926.0109912980161</v>
       </c>
       <c r="S6">
-        <v>0.009305708484093395</v>
+        <v>0.01853305599615516</v>
       </c>
       <c r="T6">
-        <v>0.009305708484093395</v>
+        <v>0.01452540208817568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H7">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I7">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J7">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N7">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O7">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P7">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q7">
-        <v>84.4705585075202</v>
+        <v>148.1717064882667</v>
       </c>
       <c r="R7">
-        <v>84.4705585075202</v>
+        <v>1333.5453583944</v>
       </c>
       <c r="S7">
-        <v>0.01229043165403623</v>
+        <v>0.01779292832935166</v>
       </c>
       <c r="T7">
-        <v>0.01229043165403623</v>
+        <v>0.02091798338845538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H8">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I8">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J8">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N8">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P8">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q8">
-        <v>1057.322347345084</v>
+        <v>1263.94099336608</v>
       </c>
       <c r="R8">
-        <v>1057.322347345084</v>
+        <v>11375.46894029472</v>
       </c>
       <c r="S8">
-        <v>0.1538399683384715</v>
+        <v>0.1517780421140865</v>
       </c>
       <c r="T8">
-        <v>0.1538399683384715</v>
+        <v>0.1784355281439179</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H9">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I9">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J9">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N9">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O9">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P9">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q9">
-        <v>1208.899988894804</v>
+        <v>1518.94818243672</v>
       </c>
       <c r="R9">
-        <v>1208.899988894804</v>
+        <v>13670.53364193048</v>
       </c>
       <c r="S9">
-        <v>0.1758944530804066</v>
+        <v>0.1824001139396723</v>
       </c>
       <c r="T9">
-        <v>0.1758944530804066</v>
+        <v>0.2144358973867379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H10">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I10">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J10">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N10">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O10">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P10">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q10">
-        <v>1201.204574303965</v>
+        <v>1533.214293286934</v>
       </c>
       <c r="R10">
-        <v>1201.204574303965</v>
+        <v>13798.9286395824</v>
       </c>
       <c r="S10">
-        <v>0.174774773410362</v>
+        <v>0.1841132337647216</v>
       </c>
       <c r="T10">
-        <v>0.174774773410362</v>
+        <v>0.2164499004434298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.6154113379315</v>
+        <v>69.95512000000001</v>
       </c>
       <c r="H11">
-        <v>64.6154113379315</v>
+        <v>209.86536</v>
       </c>
       <c r="I11">
-        <v>0.9403945931701475</v>
+        <v>0.9173350208206587</v>
       </c>
       <c r="J11">
-        <v>0.9403945931701475</v>
+        <v>0.9290470048592353</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N11">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O11">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P11">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q11">
-        <v>2911.313810956647</v>
+        <v>3174.888706863121</v>
       </c>
       <c r="R11">
-        <v>2911.313810956647</v>
+        <v>19049.33224117872</v>
       </c>
       <c r="S11">
-        <v>0.4235949666868711</v>
+        <v>0.3812507026728265</v>
       </c>
       <c r="T11">
-        <v>0.4235949666868711</v>
+        <v>0.2988076954966943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H12">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I12">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J12">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N12">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O12">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P12">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q12">
-        <v>3.498347235378406</v>
+        <v>0.04084467008777778</v>
       </c>
       <c r="R12">
-        <v>3.498347235378406</v>
+        <v>0.36760203079</v>
       </c>
       <c r="S12">
-        <v>0.0005090080894241639</v>
+        <v>4.904757492047867E-06</v>
       </c>
       <c r="T12">
-        <v>0.0005090080894241639</v>
+        <v>5.76620294557202E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H13">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I13">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J13">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N13">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P13">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q13">
-        <v>43.78899318404743</v>
+        <v>0.3484150524280001</v>
       </c>
       <c r="R13">
-        <v>43.78899318404743</v>
+        <v>3.135735471852</v>
       </c>
       <c r="S13">
-        <v>0.006371280567295882</v>
+        <v>4.183878422976532E-05</v>
       </c>
       <c r="T13">
-        <v>0.006371280567295882</v>
+        <v>4.918712520567375E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H14">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I14">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J14">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N14">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O14">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P14">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q14">
-        <v>50.06657951270223</v>
+        <v>0.4187097446770001</v>
       </c>
       <c r="R14">
-        <v>50.06657951270223</v>
+        <v>3.768387702093</v>
       </c>
       <c r="S14">
-        <v>0.007284666806097359</v>
+        <v>5.027999376135245E-05</v>
       </c>
       <c r="T14">
-        <v>0.007284666806097359</v>
+        <v>5.911090377049445E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.67604653752546</v>
+        <v>0.01928366666666667</v>
       </c>
       <c r="H15">
-        <v>2.67604653752546</v>
+        <v>0.057851</v>
       </c>
       <c r="I15">
-        <v>0.03894643155329323</v>
+        <v>0.0002528704512716912</v>
       </c>
       <c r="J15">
-        <v>0.03894643155329323</v>
+        <v>0.0002560989497176267</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N15">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O15">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P15">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q15">
-        <v>49.74787400353294</v>
+        <v>0.4226423078155556</v>
       </c>
       <c r="R15">
-        <v>49.74787400353294</v>
+        <v>3.80378077034</v>
       </c>
       <c r="S15">
-        <v>0.00723829528509148</v>
+        <v>5.075222841217298E-05</v>
       </c>
       <c r="T15">
-        <v>0.00723829528509148</v>
+        <v>5.966607919740951E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01928366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.057851</v>
+      </c>
+      <c r="I16">
+        <v>0.0002528704512716912</v>
+      </c>
+      <c r="J16">
+        <v>0.0002560989497176267</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N16">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O16">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P16">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q16">
+        <v>0.8751824816670002</v>
+      </c>
+      <c r="R16">
+        <v>5.251094890002</v>
+      </c>
+      <c r="S16">
+        <v>0.0001050946873763526</v>
+      </c>
+      <c r="T16">
+        <v>8.236863859847696E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.8840685</v>
+      </c>
+      <c r="H17">
+        <v>5.768137</v>
+      </c>
+      <c r="I17">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J17">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.118096666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.354290000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.01939632514349435</v>
+      </c>
+      <c r="P17">
+        <v>0.02251552750188864</v>
+      </c>
+      <c r="Q17">
+        <v>6.108735876288334</v>
+      </c>
+      <c r="R17">
+        <v>36.65241525773001</v>
+      </c>
+      <c r="S17">
+        <v>0.0007335563732496027</v>
+      </c>
+      <c r="T17">
+        <v>0.0005749295355285639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.8840685</v>
+      </c>
+      <c r="H18">
+        <v>5.768137</v>
+      </c>
+      <c r="I18">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J18">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>18.067884</v>
+      </c>
+      <c r="N18">
+        <v>54.20365200000001</v>
+      </c>
+      <c r="O18">
+        <v>0.1654554101491777</v>
+      </c>
+      <c r="P18">
+        <v>0.1920629712066653</v>
+      </c>
+      <c r="Q18">
+        <v>52.10901510605401</v>
+      </c>
+      <c r="R18">
+        <v>312.654090636324</v>
+      </c>
+      <c r="S18">
+        <v>0.006257415758173388</v>
+      </c>
+      <c r="T18">
+        <v>0.004904289931418288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.67604653752546</v>
-      </c>
-      <c r="H16">
-        <v>2.67604653752546</v>
-      </c>
-      <c r="I16">
-        <v>0.03894643155329323</v>
-      </c>
-      <c r="J16">
-        <v>0.03894643155329323</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>45.0560284408126</v>
-      </c>
-      <c r="N16">
-        <v>45.0560284408126</v>
-      </c>
-      <c r="O16">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="P16">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="Q16">
-        <v>120.5720289036852</v>
-      </c>
-      <c r="R16">
-        <v>120.5720289036852</v>
-      </c>
-      <c r="S16">
-        <v>0.01754318080538435</v>
-      </c>
-      <c r="T16">
-        <v>0.01754318080538435</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.8840685</v>
+      </c>
+      <c r="H19">
+        <v>5.768137</v>
+      </c>
+      <c r="I19">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J19">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.713181</v>
+      </c>
+      <c r="N19">
+        <v>65.139543</v>
+      </c>
+      <c r="O19">
+        <v>0.198836967737801</v>
+      </c>
+      <c r="P19">
+        <v>0.2308127535691568</v>
+      </c>
+      <c r="Q19">
+        <v>62.62230135689851</v>
+      </c>
+      <c r="R19">
+        <v>375.733808141391</v>
+      </c>
+      <c r="S19">
+        <v>0.007519884506092191</v>
+      </c>
+      <c r="T19">
+        <v>0.005893757949595142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.8840685</v>
+      </c>
+      <c r="H20">
+        <v>5.768137</v>
+      </c>
+      <c r="I20">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J20">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.91711333333333</v>
+      </c>
+      <c r="N20">
+        <v>65.75134</v>
+      </c>
+      <c r="O20">
+        <v>0.2007044641117176</v>
+      </c>
+      <c r="P20">
+        <v>0.2329805696712033</v>
+      </c>
+      <c r="Q20">
+        <v>63.21045617559667</v>
+      </c>
+      <c r="R20">
+        <v>379.26273705358</v>
+      </c>
+      <c r="S20">
+        <v>0.007590512001608603</v>
+      </c>
+      <c r="T20">
+        <v>0.005949112704421845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.8840685</v>
+      </c>
+      <c r="H21">
+        <v>5.768137</v>
+      </c>
+      <c r="I21">
+        <v>0.03781934814057507</v>
+      </c>
+      <c r="J21">
+        <v>0.02553480194858139</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N21">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O21">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P21">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q21">
+        <v>130.8924423325935</v>
+      </c>
+      <c r="R21">
+        <v>523.5697693303741</v>
+      </c>
+      <c r="S21">
+        <v>0.01571797950145128</v>
+      </c>
+      <c r="T21">
+        <v>0.008212711827617555</v>
       </c>
     </row>
   </sheetData>
